--- a/data/income_statement/3digits/total/281_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/281_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>281-Manufacture of general-purpose machinery</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>281-Manufacture of general-purpose machinery</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>4674726.00147</v>
@@ -959,34 +865,39 @@
         <v>8230942.24626</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9119904.576140001</v>
+        <v>9119904.57614</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>10717038.92767</v>
+        <v>10751672.8105</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13664306.58425</v>
+        <v>13664566.15319</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>15018431.43209</v>
+        <v>15061818.1828</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16783153.83938</v>
+        <v>16805711.54877</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>22039648.99999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>29061417.77478</v>
+        <v>29072344.7758</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>32716575.43321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32805584.43167</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>43421827.218</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2717970.5304</v>
@@ -998,34 +909,39 @@
         <v>4792866.750680001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5405321.545689999</v>
+        <v>5405321.545690001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6180138.209379999</v>
+        <v>6210649.740769999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7721396.54142</v>
+        <v>7721655.17026</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>8471452.152729999</v>
+        <v>8505999.221069999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9526646.188419998</v>
+        <v>9547202.315570002</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>12185860.71105</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15864241.00941</v>
+        <v>15874792.24314</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>16777326.01625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16861365.69676</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>25065373.378</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1919944.93028</v>
@@ -1040,70 +956,80 @@
         <v>3643160.32921</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4446627.17475</v>
+        <v>4450312.168140001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5845258.956809999</v>
+        <v>5845258.95681</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6422913.97333</v>
+        <v>6431624.59369</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>7123936.77895</v>
+        <v>7124977.56451</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>9675304.48724</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>12929261.71819</v>
+        <v>12929626.11579</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15589836.02524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15594416.82843</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>17882366.068</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>36810.54079000001</v>
+        <v>36810.54079</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>37569.67991</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>55990.52929</v>
+        <v>55990.52929000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>71422.70123999999</v>
+        <v>71422.70124000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>90273.54354</v>
+        <v>90710.90159000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>97651.08602</v>
+        <v>97652.02612000001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>124065.30603</v>
+        <v>124194.36804</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>132570.87201</v>
+        <v>133531.66869</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>178483.8017</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>267915.04718</v>
+        <v>267926.41687</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>349413.39172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>349801.90648</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>474087.772</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>197143.75308</v>
@@ -1118,31 +1044,36 @@
         <v>297602.43842</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>268851.52193</v>
+        <v>268860.24493</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>589100.18005</v>
+        <v>589100.91579</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>384470.4131600001</v>
+        <v>385120.09018</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>588717.2753</v>
+        <v>588788.36755</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>529330.98759</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>748286.4489200001</v>
+        <v>748517.8664000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>856935.1864799999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>859854.0024799999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1284684.838</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>64355.68951</v>
@@ -1151,37 +1082,42 @@
         <v>59945.27343</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>95869.25982000001</v>
+        <v>95869.25981999999</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>100362.25127</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>87029.37673999999</v>
+        <v>87037.49674</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>360693.40223</v>
+        <v>360694.13797</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>121924.33757</v>
+        <v>122547.88942</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>278167.57122</v>
+        <v>278197.80947</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>173948.00909</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>242494.58607</v>
+        <v>242602.41888</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>339984.3647100001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>340568.02716</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>330168.356</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>122279.21132</v>
@@ -1196,31 +1132,36 @@
         <v>183508.03502</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>172013.57498</v>
+        <v>172014.05798</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>203465.68206</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>240190.57952</v>
+        <v>240205.11699</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>281374.25908</v>
+        <v>281415.11308</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>330151.70243</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>440995.322</v>
+        <v>441117.96433</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>460154.21433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>462455.59167</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>870896.637</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>10508.85225</v>
@@ -1235,13 +1176,13 @@
         <v>13732.15213</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>9808.57021</v>
+        <v>9808.690210000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>24941.09576</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>22355.49607</v>
+        <v>22367.08377</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>29175.445</v>
@@ -1250,55 +1191,65 @@
         <v>25231.27607</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>64796.54085</v>
+        <v>64797.48319</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>56796.60744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>56830.38365</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>83619.845</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>4477582.248389999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5667213.319259999</v>
+        <v>5667213.31926</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>7931948.15509</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8822302.13772</v>
+        <v>8822302.137720002</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>10448187.40574</v>
+        <v>10482812.56557</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>13075206.4042</v>
+        <v>13075465.2374</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>14633961.01893</v>
+        <v>14676698.09262</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>16194436.56408</v>
+        <v>16216923.18122</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>21510318.0124</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>28313131.32586</v>
+        <v>28323826.9094</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>31859640.24673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>31945730.42919</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>42137142.38</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3549807.74216</v>
@@ -1313,31 +1264,36 @@
         <v>7381199.16239</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8617732.4275</v>
+        <v>8642695.792119998</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10698135.47484</v>
+        <v>10698339.03873</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>12120404.21461</v>
+        <v>12159481.98732</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13335102.78301</v>
+        <v>13354526.73985</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>17453509.5588</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>22508111.23541</v>
+        <v>22517468.14806</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>25537651.89051</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>25614519.52827</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>33835650.76</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2852315.09527</v>
@@ -1346,43 +1302,48 @@
         <v>3800852.40758</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5320004.422490001</v>
+        <v>5320004.42249</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6070541.505890002</v>
+        <v>6070541.505890001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7047264.33216</v>
+        <v>7071331.741529999</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>8756627.74494</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9858850.390620001</v>
+        <v>9887298.58186</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10860081.18622</v>
+        <v>10869751.2223</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>13936438.88464</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>18038716.49582</v>
+        <v>18047062.31409</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20800325.13725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20832256.19011</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>25867431.347</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>624973.9794</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>804701.8404299999</v>
+        <v>804701.8404300001</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>1049599.26832</v>
@@ -1391,40 +1352,45 @@
         <v>1161866.22542</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1335152.90883</v>
+        <v>1336048.86408</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1723324.97358</v>
+        <v>1723528.53747</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1981220.38824</v>
+        <v>1982333.48871</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2275225.28432</v>
+        <v>2282755.25457</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3193087.55259</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3918326.4543</v>
+        <v>3919224.914679999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4440923.683569999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4484016.962610001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7444060.834</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>51068.8952</v>
+        <v>51068.89520000001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>76218.18773999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>66946.94917000001</v>
+        <v>66946.94916999999</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>111956.6898</v>
@@ -1436,25 +1402,30 @@
         <v>155060.03726</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>206000.36752</v>
+        <v>215516.84852</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>120392.21109</v>
+        <v>122616.1616</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>243815.65517</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>444010.9199099999</v>
+        <v>444123.55391</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>168744.31166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>170586.97324</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>378062.811</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>21449.77229</v>
@@ -1475,31 +1446,36 @@
         <v>63122.71906</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>74333.06822999999</v>
+        <v>74333.06823</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>79404.10137999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>80167.46639999999</v>
+        <v>80167.4664</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>107057.36538</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>127658.75803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>127659.40231</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>146095.768</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>927774.5062300001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>953264.7534</v>
+        <v>953264.7533999998</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1453222.09583</v>
@@ -1508,34 +1484,39 @@
         <v>1441102.97533</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1830454.97824</v>
+        <v>1840116.77345</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2377070.929359999</v>
+        <v>2377126.19867</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2513556.80432</v>
+        <v>2517216.1053</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2859333.78107</v>
+        <v>2862396.44137</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4056808.453600001</v>
+        <v>4056808.4536</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5805020.090450001</v>
+        <v>5806358.76134</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6321988.356219999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6331210.90092</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8301491.62</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>452512.7935000001</v>
+        <v>452512.7935</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>500673.83458</v>
@@ -1544,34 +1525,39 @@
         <v>637168.0245599999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>764087.95071</v>
+        <v>764088.65082</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>874098.90793</v>
+        <v>880418.7609199999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1088678.21166</v>
+        <v>1088793.68993</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1243478.80768</v>
+        <v>1247348.72014</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1490520.18657</v>
+        <v>1492664.63598</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1780843.28536</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2155246.11758</v>
+        <v>2160335.18743</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2608797.89047</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2618836.94193</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2989025.642</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>12633.78669</v>
@@ -1586,7 +1572,7 @@
         <v>28009.35932</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>34883.21047</v>
+        <v>35146.07196</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>48910.09352</v>
@@ -1601,16 +1587,21 @@
         <v>62962.59181000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>72507.81654</v>
+        <v>72603.01345999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>86141.65725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>86160.50845000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>101095.735</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>183180.3737</v>
@@ -1625,31 +1616,36 @@
         <v>316174.3442</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>372453.57917</v>
+        <v>374252.07351</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>476439.8857100001</v>
+        <v>476439.88571</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>549245.2246599999</v>
+        <v>549667.0767999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>665337.8040799999</v>
+        <v>665603.56343</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>777635.81152</v>
+        <v>777635.8115200001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>977099.9533300002</v>
+        <v>977306.4268899999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1179618.70767</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1181736.86643</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1330922.712</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>256698.63311</v>
@@ -1661,34 +1657,39 @@
         <v>341926.30326</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>419904.24719</v>
+        <v>419904.9472999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>466762.11829</v>
+        <v>471020.61545</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>563328.2324300001</v>
+        <v>563443.7107000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>629740.0920599999</v>
+        <v>633188.15238</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>760183.23542</v>
+        <v>762061.92548</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>940244.88203</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1105638.34771</v>
+        <v>1110425.74708</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1343037.52555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1350939.56705</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1557007.195</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>475261.71273</v>
@@ -1697,37 +1698,42 @@
         <v>452590.91882</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>816054.0712699998</v>
+        <v>816054.07127</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>677015.0246199999</v>
+        <v>677014.3245099999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>956356.0703100001</v>
+        <v>959698.0125299999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1288392.7177</v>
+        <v>1288332.50874</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1270077.99664</v>
+        <v>1269867.38516</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1368813.5945</v>
+        <v>1369731.80539</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2275965.16824</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3649773.97287</v>
+        <v>3646023.57391</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3713190.46575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3712373.95899</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>5312465.978</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>215576.41614</v>
@@ -1742,31 +1748,36 @@
         <v>414284.27138</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>956304.4847099999</v>
+        <v>957492.05712</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>684118.79941</v>
+        <v>684118.7994100001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1359790.23863</v>
+        <v>1361873.34847</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1292192.05796</v>
+        <v>1294675.16585</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1975284.9877</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3643253.79094</v>
+        <v>3646991.23038</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4388929.38503</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4392138.52604</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8573335.431</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>701.9229799999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>193861.47888</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>69888.087</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>21703.02869</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>51585.70806</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>63780.609</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>17143.93516</v>
@@ -1859,31 +1880,36 @@
         <v>20742.90598</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>18972.91782</v>
+        <v>19007.77325</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>30474.43685</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>29270.2991</v>
+        <v>29517.95768</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>34724.06794000001</v>
+        <v>34729.9371</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>50493.08053</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>117677.70333</v>
+        <v>117879.67672</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>139877.19586</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>139891.10912</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>130203.895</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>7400.1393</v>
@@ -1904,10 +1930,10 @@
         <v>2952.73247</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6042.307099999999</v>
+        <v>6042.368579999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2061.5543</v>
+        <v>2737.03454</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>2252.74969</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1280.87828</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>15571.214</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3382.13274</v>
@@ -1937,10 +1968,10 @@
         <v>4236.86676</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5571.72651</v>
+        <v>6064.310949999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6994.42885</v>
+        <v>6994.428849999999</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>9424.118470000001</v>
@@ -1955,13 +1986,18 @@
         <v>17573.52279</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>100569.63621</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>100569.72621</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>64771.749</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1699.90894</v>
@@ -1973,7 +2009,7 @@
         <v>1224.18387</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>483.3224699999999</v>
+        <v>483.32247</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>265.94159</v>
@@ -1982,7 +2018,7 @@
         <v>442.54257</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3037.90894</v>
+        <v>3211.84276</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>640.17071</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>9596.463890000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>94474.43799999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>120759.47733</v>
@@ -2015,31 +2056,36 @@
         <v>240855.91435</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>779502.28795</v>
+        <v>780133.0373800001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>497548.52216</v>
+        <v>497548.5221600001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1067211.10072</v>
+        <v>1068872.5566</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>945630.92796</v>
+        <v>947422.1346799999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1450260.32654</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2845554.24916</v>
+        <v>2848803.29215</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3459675.61465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>3461304.43002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7200210.105</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2392.31275</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>12302.7096</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>26050.762</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.21065</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>17.871</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>40392.34760000001</v>
+        <v>40392.3476</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>48555.1702</v>
@@ -2129,40 +2185,45 @@
         <v>108852.21859</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>97598.34304999998</v>
+        <v>97598.34305</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>133910.8239</v>
+        <v>133940.20701</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>115826.72378</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>173153.34073</v>
+        <v>173153.34081</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>239640.69845</v>
+        <v>239651.25022</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>401342.31405</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>462892.1415</v>
+        <v>463178.56456</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>420179.6996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>421746.02198</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>908366.701</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>163930.38834</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>189187.97855</v>
+        <v>189187.9785499999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>370409.82859</v>
@@ -2171,31 +2232,36 @@
         <v>231278.24041</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>660850.25526</v>
+        <v>663763.85977</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>508877.41466</v>
+        <v>508945.77529</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>949868.27548</v>
+        <v>951958.5343200001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>847237.84418</v>
+        <v>848241.9121699999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1159778.25928</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3016540.35612</v>
+        <v>3019249.67592</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3646738.2536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3648988.54435</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6469383.034</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1907.26001</v>
@@ -2207,16 +2273,16 @@
         <v>2724.48481</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3291.987900000001</v>
+        <v>3291.9879</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3071.09404</v>
+        <v>3189.82209</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4201.712050000001</v>
+        <v>4201.71205</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3602.25723</v>
+        <v>3638.31014</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>5337.208070000001</v>
@@ -2228,13 +2294,18 @@
         <v>10743.9401</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12361.19953</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12413.77891</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>10946.825</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>17891.77822</v>
@@ -2249,13 +2320,13 @@
         <v>31404.3571</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>39203.822</v>
+        <v>39963.37183</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>37701.98685</v>
+        <v>37701.98684999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>105918.47929</v>
+        <v>105974.14986</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>102640.79529</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>281547.4475</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>183104.805</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1009.22832</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>168.36512</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3531.45</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>121660.95405</v>
@@ -2327,31 +2408,36 @@
         <v>165562.17661</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>535290.74968</v>
+        <v>537232.48115</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>382448.70458</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>740367.99814</v>
+        <v>742366.53302</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>666607.8139200001</v>
+        <v>667602.38978</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>973772.43965</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2756062.56198</v>
+        <v>2758771.88178</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3218039.97728</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3220155.6129</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6116512.173</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2661.13781</v>
@@ -2378,7 +2464,7 @@
         <v>3129.18491</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>5347.20758</v>
+        <v>5347.207580000001</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>13370.69203</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>7608.19347</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>47210.164</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>128.19868</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>72.03389999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>18671.83125</v>
@@ -2444,16 +2540,16 @@
         <v>26115.57641</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>77538.22723999999</v>
+        <v>77631.82239999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>77469.64019999999</v>
+        <v>77538.00083000002</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>90722.40134</v>
+        <v>90722.40182</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>69225.64182999999</v>
+        <v>69235.13395999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>88653.94122999998</v>
@@ -2462,13 +2558,18 @@
         <v>76118.22056</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>126941.0368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>127023.11255</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>108077.617</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>132599.77719</v>
@@ -2483,31 +2584,36 @@
         <v>224328.13334</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>541674.80642</v>
+        <v>542000.7348</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>412938.4191</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>757265.99564</v>
+        <v>757577.18564</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>795098.65269</v>
+        <v>795633.96297</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1073073.90162</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1194093.52755</v>
+        <v>1194459.65078</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1010518.84742</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1011143.09314</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1910231.815</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>104848.31123</v>
@@ -2522,31 +2628,36 @@
         <v>202507.0467</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>514300.93244</v>
+        <v>514547.91323</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>389317.0026899999</v>
+        <v>389317.0026900001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>732827.4465900002</v>
+        <v>733138.63659</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>770913.8660800001</v>
+        <v>771449.17636</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1037074.35829</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1127328.83238</v>
+        <v>1127694.95561</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>958987.8319700002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>959600.3407399999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1837324.99</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>27751.46596</v>
@@ -2561,7 +2672,7 @@
         <v>21821.08664</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>27373.87398</v>
+        <v>27452.82157</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>23621.41641</v>
@@ -2579,52 +2690,62 @@
         <v>66764.69517000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>51531.01545000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>51542.7524</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>72906.825</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>394307.96334</v>
+        <v>394307.9633400001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>425619.09544</v>
+        <v>425619.0954400001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>549632.49816</v>
+        <v>549632.4981600001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>635692.9222499999</v>
+        <v>635692.2221400001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>710135.4933400002</v>
+        <v>711425.47508</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1050695.68335</v>
+        <v>1050567.11376</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>922733.96415</v>
+        <v>922205.0136700001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1018669.15559</v>
+        <v>1020531.0961</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2018397.99504</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3082393.88014</v>
+        <v>3079305.47759</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3444862.74976</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3444380.84754</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5506186.56</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>49741.781</v>
@@ -2633,37 +2754,42 @@
         <v>35555.56541</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>53716.03369</v>
+        <v>53716.03368999999</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>43326.33884</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>65130.36392</v>
+        <v>66906.08349</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>127485.93896</v>
+        <v>127485.94112</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>139643.21523</v>
+        <v>140056.32661</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>297247.96754</v>
+        <v>297957.8315200001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>181565.54263</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>196956.70064</v>
+        <v>197074.42607</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>183143.24768</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>184606.326</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>287405.008</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1657.67501</v>
@@ -2678,13 +2804,13 @@
         <v>1769.17858</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2361.451880000001</v>
+        <v>2361.45188</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4325.32721</v>
+        <v>4325.327210000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>7829.15535</v>
+        <v>7829.155350000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>5108.19939</v>
@@ -2696,13 +2822,18 @@
         <v>4775.988240000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>9261.264590000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>9261.264590000002</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>12795.54</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>48084.10599</v>
@@ -2711,85 +2842,95 @@
         <v>32852.66875</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>51346.43184999999</v>
+        <v>51346.43185</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>41557.16026</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>62768.91204</v>
+        <v>64544.63161</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>123160.61175</v>
+        <v>123160.61391</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>131814.05988</v>
+        <v>132227.17126</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>292139.76815</v>
+        <v>292849.63213</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>167298.95958</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>192180.7124</v>
+        <v>192298.43783</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>173881.98309</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>175345.06141</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>274609.468</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>149702.22879</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>46869.93734999999</v>
+        <v>46869.93735</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>189145.89815</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>68123.83542999999</v>
+        <v>68123.83543000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>67569.01910999999</v>
+        <v>67769.20131</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>154665.88245</v>
+        <v>154666.36403</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>120802.31291</v>
+        <v>122083.73767</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>410146.56077</v>
+        <v>410423.77476</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>152266.84756</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>233161.60178</v>
+        <v>233729.79273</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>192574.23303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>192940.13148</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>284014.83</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>92741.58025</v>
+        <v>92741.58025000001</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>15951.47754</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>9578.936850000002</v>
+        <v>9578.93685</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>13544.40424</v>
@@ -2801,7 +2942,7 @@
         <v>18418.75149</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>44800.72892999999</v>
+        <v>45907.94625</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>12793.27648</v>
@@ -2810,31 +2951,36 @@
         <v>40905.19996</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>62299.10980000001</v>
+        <v>62380.15797</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>41934.11612999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>42014.14791</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>124003.041</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3440.011860000001</v>
+        <v>3440.01186</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>3063.793</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4552.346080000001</v>
+        <v>4552.34608</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>16239.4456</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9088.469870000001</v>
+        <v>9115.786689999999</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>8241.172779999999</v>
@@ -2843,7 +2989,7 @@
         <v>16268.13414</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>193602.30707</v>
+        <v>193820.60188</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>9519.566280000001</v>
@@ -2852,16 +2998,21 @@
         <v>19504.07992</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>19223.6186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>19224.72587</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>10252.016</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>53520.63668000001</v>
+        <v>53520.63667999999</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>27854.66681</v>
@@ -2873,31 +3024,36 @@
         <v>38339.98559</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>42886.0621</v>
+        <v>43058.92748</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>128005.95818</v>
+        <v>128006.43976</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>59733.44984</v>
+        <v>59907.65728</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>203750.97722</v>
+        <v>203809.8964</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>101842.08132</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>151358.41206</v>
+        <v>151845.55484</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>131416.4983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>131701.2577</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>149759.773</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>294347.51555</v>
@@ -2906,37 +3062,42 @@
         <v>414304.7235</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>414202.6337</v>
+        <v>414202.6337000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>610895.4256599999</v>
+        <v>610894.72555</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>707696.8381500001</v>
+        <v>710562.35726</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1023515.73986</v>
+        <v>1023386.69085</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>941574.8664699999</v>
+        <v>940177.6026099999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>905770.56236</v>
+        <v>908065.1528599999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2047696.69011</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3046188.979</v>
+        <v>3042650.11093</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3435431.76441</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>3436047.04206</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5509576.738</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>57798.77447</v>
@@ -2951,31 +3112,36 @@
         <v>104709.18553</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>107819.49299</v>
+        <v>108216.7076</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>150865.58714</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>159558.71786</v>
+        <v>159758.31131</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>141176.87764</v>
+        <v>141581.37013</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>211694.10104</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>328074.45359</v>
+        <v>328250.1715</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>372281.26163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>339089.46066</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>597647.453</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>236548.74108</v>
@@ -2987,31 +3153,34 @@
         <v>311520.04974</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>506186.24013</v>
+        <v>506185.54002</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>599877.3451599999</v>
+        <v>602345.6496599999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>872650.1527200001</v>
+        <v>872521.1037100001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>782016.14861</v>
+        <v>780419.2913</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>764593.68472</v>
+        <v>766483.78273</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1836002.58907</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2718114.52541</v>
+        <v>2714399.93943</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3063150.50278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3096957.5814</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4911929.285</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>898</v>
@@ -3041,31 +3213,34 @@
         <v>998</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1442</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1398</v>
+        <v>1488</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1552</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>